--- a/data/trans_orig/P43C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966A5F9E-C111-4E5E-8298-1936632772CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ED151BF-299A-4895-9D66-D8BD40474D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87650CF3-38FF-4EFA-B737-D3177AB35A3E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0407D603-7B9B-44A0-ADB5-4227BC879FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="189">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>26,6%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>73,4%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>62,87%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>71,7%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>72,29%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,37 +191,37 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,250 +233,250 @@
     <t>39,17%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
   </si>
   <si>
     <t>60,83%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>39,93%</t>
   </si>
   <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -485,115 +485,127 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>63,89%</t>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>36,11%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>70,75%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>45,41%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
   </si>
   <si>
     <t>54,59%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>47,89%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>52,11%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1702C452-AB74-48AF-B5AC-883F498186AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68864358-3E9C-4038-B7C6-A9D1F840091B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2182,7 +2194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2B3883-4998-49A5-AC88-19C4E6070093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF35B26-6B91-415F-8144-8E65C0B55501}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,7 +3371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFF9CD5-C771-4CD1-B178-A04442AF800B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D11678-E484-4E88-8F12-CCDE8FF17956}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4098,7 +4110,7 @@
         <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>289</v>
@@ -4113,7 +4125,7 @@
         <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4153,13 @@
         <v>160962</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -4156,13 +4168,13 @@
         <v>160962</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4253,13 @@
         <v>354577</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>302</v>
@@ -4256,13 +4268,13 @@
         <v>354577</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4302,13 @@
         <v>410587</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
@@ -4305,13 +4317,13 @@
         <v>410587</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4402,13 @@
         <v>2242226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>2123</v>
@@ -4405,13 +4417,13 @@
         <v>2242226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,7 +4451,7 @@
         <v>1264446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>144</v>
@@ -4454,7 +4466,7 @@
         <v>1264446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>144</v>
@@ -4536,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DAFB4-EB0B-4FF4-A5C1-97A3D2D9CBBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359887C-881A-4546-A7AD-9660017BE0AD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4977,7 +4989,7 @@
         <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -4992,7 +5004,7 @@
         <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5032,13 @@
         <v>127010</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>181</v>
@@ -5035,13 +5047,13 @@
         <v>127010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5132,13 @@
         <v>393391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>587</v>
@@ -5135,13 +5147,13 @@
         <v>393391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5181,13 @@
         <v>125334</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -5184,13 +5196,13 @@
         <v>125334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5281,13 @@
         <v>308804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>516</v>
@@ -5284,13 +5296,13 @@
         <v>308804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5330,13 @@
         <v>127647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -5333,13 +5345,13 @@
         <v>127647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5430,13 @@
         <v>388877</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>724</v>
@@ -5433,13 +5445,13 @@
         <v>388877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5479,13 @@
         <v>467408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>663</v>
@@ -5482,13 +5494,13 @@
         <v>467408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5579,13 @@
         <v>1613216</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>2420</v>
@@ -5582,13 +5594,13 @@
         <v>1613216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5628,13 @@
         <v>1271690</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>1568</v>
@@ -5631,13 +5643,13 @@
         <v>1271690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ED151BF-299A-4895-9D66-D8BD40474D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{957D0D74-9EE3-4748-A212-9ECA7C92942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0407D603-7B9B-44A0-ADB5-4227BC879FBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08F4E91F-630B-45FF-A10C-E2E329D9392C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>26,6%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>73,4%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>62,87%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>72,29%</t>
   </si>
   <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,7 +191,7 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,49%</t>
+    <t>26,42%</t>
   </si>
   <si>
     <t>33,26%</t>
@@ -203,25 +203,25 @@
     <t>66,74%</t>
   </si>
   <si>
-    <t>73,51%</t>
+    <t>73,58%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,190 +233,184 @@
     <t>39,17%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
   </si>
   <si>
     <t>60,83%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>67,14%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>32,86%</t>
   </si>
   <si>
     <t>39,93%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>60,07%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>73,04%</t>
+    <t>73,01%</t>
   </si>
   <si>
     <t>79,82%</t>
@@ -428,55 +422,61 @@
     <t>20,18%</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>26,99%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>63,08%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>36,92%</t>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>46,34%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>53,66%</t>
   </si>
   <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
   </si>
   <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -521,9 +521,6 @@
     <t>68,25%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
     <t>71,98%</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
   </si>
   <si>
     <t>28,02%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
   </si>
   <si>
     <t>75,84%</t>
@@ -1017,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68864358-3E9C-4038-B7C6-A9D1F840091B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB6225E-882C-4E6A-8577-C3DD0F1AF529}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2194,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF35B26-6B91-415F-8144-8E65C0B55501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD7D229-540A-40B0-B1B3-0AA1B4C13519}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2933,7 +2927,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>286</v>
@@ -2948,7 +2942,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2970,13 @@
         <v>124648</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -2991,13 +2985,13 @@
         <v>124648</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3070,13 @@
         <v>290045</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -3091,13 +3085,13 @@
         <v>290045</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3119,13 @@
         <v>436351</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>406</v>
@@ -3140,13 +3134,13 @@
         <v>436351</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3219,13 @@
         <v>2292976</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>2107</v>
@@ -3240,13 +3234,13 @@
         <v>2292976</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,31 +3265,31 @@
         <v>1157</v>
       </c>
       <c r="I23" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1157</v>
       </c>
       <c r="N23" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3314,7 @@
         <v>3264</v>
       </c>
       <c r="I24" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -3335,7 +3329,7 @@
         <v>3264</v>
       </c>
       <c r="N24" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3371,7 +3365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D11678-E484-4E88-8F12-CCDE8FF17956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2251C4-4E7C-4C9A-99F5-36B699891B50}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3388,7 +3382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3508,13 +3502,13 @@
         <v>164759</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>167</v>
@@ -3523,13 +3517,13 @@
         <v>164759</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3551,13 @@
         <v>220961</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>227</v>
@@ -3572,13 +3566,13 @@
         <v>220961</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3651,13 @@
         <v>379048</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -3672,13 +3666,13 @@
         <v>379048</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3700,13 @@
         <v>182535</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -3721,13 +3715,13 @@
         <v>182535</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3800,13 @@
         <v>518258</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -3821,13 +3815,13 @@
         <v>518258</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3849,13 @@
         <v>138823</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>142</v>
@@ -3870,13 +3864,13 @@
         <v>138823</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3949,13 @@
         <v>492828</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -3970,13 +3964,13 @@
         <v>492828</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3998,13 @@
         <v>150578</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -4019,13 +4013,13 @@
         <v>150578</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4098,13 @@
         <v>332757</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>289</v>
@@ -4119,13 +4113,13 @@
         <v>332757</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,10 +4147,10 @@
         <v>160962</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>133</v>
@@ -4168,10 +4162,10 @@
         <v>160962</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>133</v>
@@ -4548,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359887C-881A-4546-A7AD-9660017BE0AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2288C6DD-39BC-4ED7-A5B6-5CBFBC84AF98}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4986,10 +4980,10 @@
         <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -5001,10 +4995,10 @@
         <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5026,13 @@
         <v>127010</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>181</v>
@@ -5047,13 +5041,13 @@
         <v>127010</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5126,13 @@
         <v>393391</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>587</v>
@@ -5147,13 +5141,13 @@
         <v>393391</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5175,13 @@
         <v>125334</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -5196,13 +5190,13 @@
         <v>125334</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5275,13 @@
         <v>308804</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>516</v>
@@ -5296,13 +5290,13 @@
         <v>308804</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5324,13 @@
         <v>127647</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -5345,13 +5339,13 @@
         <v>127647</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5424,13 @@
         <v>388877</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>724</v>
@@ -5445,13 +5439,13 @@
         <v>388877</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5473,13 @@
         <v>467408</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>663</v>
@@ -5494,13 +5488,13 @@
         <v>467408</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5573,13 @@
         <v>1613216</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>2420</v>
@@ -5594,13 +5588,13 @@
         <v>1613216</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5622,13 @@
         <v>1271690</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>1568</v>
@@ -5643,13 +5637,13 @@
         <v>1271690</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{957D0D74-9EE3-4748-A212-9ECA7C92942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AE96B4-6E91-44DA-BB21-A209633277E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08F4E91F-630B-45FF-A10C-E2E329D9392C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{36C9F8F3-631D-4B9D-8A67-A92A7701CECD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="185">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>26,6%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>73,4%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>62,87%</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>72,29%</t>
   </si>
   <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>43,45%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,37 +191,37 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,121 +233,127 @@
     <t>39,17%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>60,83%</t>
   </si>
   <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>67,14%</t>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>32,86%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
   </si>
   <si>
     <t>39,93%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>60,07%</t>
   </si>
   <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
@@ -356,127 +362,121 @@
     <t>42,71%</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>46,34%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>53,66%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -485,121 +485,115 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>71,98%</t>
+    <t>63,89%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>28,02%</t>
+    <t>36,11%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>70,75%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>45,41%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>54,59%</t>
   </si>
   <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>47,89%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>52,11%</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB6225E-882C-4E6A-8577-C3DD0F1AF529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC290C-73A4-48D6-9561-C1AFF685DD0B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,7 +2182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD7D229-540A-40B0-B1B3-0AA1B4C13519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB5EB57-026E-4892-B37A-5D6091609FF4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2927,7 +2921,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>286</v>
@@ -2942,7 +2936,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2964,13 @@
         <v>124648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -2985,13 +2979,13 @@
         <v>124648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3064,13 @@
         <v>290045</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -3085,13 +3079,13 @@
         <v>290045</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3113,13 @@
         <v>436351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>406</v>
@@ -3134,13 +3128,13 @@
         <v>436351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3213,13 @@
         <v>2292976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>2107</v>
@@ -3234,13 +3228,13 @@
         <v>2292976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,31 +3259,31 @@
         <v>1157</v>
       </c>
       <c r="I23" s="7">
-        <v>1229377</v>
+        <v>1229378</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1157</v>
       </c>
       <c r="N23" s="7">
-        <v>1229377</v>
+        <v>1229378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3308,7 @@
         <v>3264</v>
       </c>
       <c r="I24" s="7">
-        <v>3522353</v>
+        <v>3522354</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -3329,7 +3323,7 @@
         <v>3264</v>
       </c>
       <c r="N24" s="7">
-        <v>3522353</v>
+        <v>3522354</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3365,7 +3359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2251C4-4E7C-4C9A-99F5-36B699891B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629EBD38-3857-4468-93E3-2B58F3860ED1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3382,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3496,13 @@
         <v>164759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>167</v>
@@ -3517,13 +3511,13 @@
         <v>164759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3545,13 @@
         <v>220961</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>227</v>
@@ -3566,13 +3560,13 @@
         <v>220961</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3645,13 @@
         <v>379048</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -3666,13 +3660,13 @@
         <v>379048</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3694,13 @@
         <v>182535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -3715,13 +3709,13 @@
         <v>182535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3794,13 @@
         <v>518258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -3815,13 +3809,13 @@
         <v>518258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3843,13 @@
         <v>138823</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>142</v>
@@ -3864,13 +3858,13 @@
         <v>138823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3943,13 @@
         <v>492828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -3964,13 +3958,13 @@
         <v>492828</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3992,13 @@
         <v>150578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -4013,13 +4007,13 @@
         <v>150578</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4092,13 @@
         <v>332757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>289</v>
@@ -4113,13 +4107,13 @@
         <v>332757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4141,13 @@
         <v>160962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -4162,13 +4156,13 @@
         <v>160962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4241,13 @@
         <v>354577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>302</v>
@@ -4262,13 +4256,13 @@
         <v>354577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4290,13 @@
         <v>410587</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
@@ -4311,13 +4305,13 @@
         <v>410587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4390,13 @@
         <v>2242226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>2123</v>
@@ -4411,13 +4405,13 @@
         <v>2242226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4439,7 @@
         <v>1264446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>144</v>
@@ -4460,7 +4454,7 @@
         <v>1264446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>144</v>
@@ -4542,7 +4536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2288C6DD-39BC-4ED7-A5B6-5CBFBC84AF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4A6550-D407-4A05-92BF-EA5B34523E89}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4980,10 +4974,10 @@
         <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -4995,10 +4989,10 @@
         <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,10 +5023,10 @@
         <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>181</v>
@@ -5044,10 +5038,10 @@
         <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5573,7 @@
         <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="M22" s="7">
         <v>2420</v>
@@ -5594,7 +5588,7 @@
         <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5616,13 @@
         <v>1271690</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>1568</v>
@@ -5637,13 +5631,13 @@
         <v>1271690</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AE96B4-6E91-44DA-BB21-A209633277E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DFEFAC7-AE28-4963-A63B-D1025A6FF444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{36C9F8F3-631D-4B9D-8A67-A92A7701CECD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DAC0D681-CF5E-4303-A14F-12CE138B1418}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="216">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>62,87%</t>
@@ -122,7 +122,7 @@
     <t>41,16%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>71,7%</t>
@@ -143,7 +143,7 @@
     <t>31,99%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>72,29%</t>
@@ -164,7 +164,7 @@
     <t>32,1%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>56,55%</t>
@@ -185,25 +185,46 @@
     <t>48,32%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>53,81%</t>
@@ -320,159 +341,201 @@
     <t>32,75%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
     <t>34,56%</t>
   </si>
   <si>
@@ -482,118 +545,148 @@
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC290C-73A4-48D6-9561-C1AFF685DD0B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD13C692-6789-4C8C-AF47-FFAC7995FFAE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1881,10 +1974,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="I19" s="7">
-        <v>195008</v>
+        <v>130436</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
@@ -1896,10 +1989,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="N19" s="7">
-        <v>195008</v>
+        <v>130436</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1930,10 +2023,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>442</v>
+        <v>222</v>
       </c>
       <c r="I20" s="7">
-        <v>460696</v>
+        <v>205237</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -1945,10 +2038,10 @@
         <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>442</v>
+        <v>222</v>
       </c>
       <c r="N20" s="7">
-        <v>460696</v>
+        <v>205237</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>52</v>
@@ -1979,10 +2072,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>641</v>
+        <v>363</v>
       </c>
       <c r="I21" s="7">
-        <v>655704</v>
+        <v>335673</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1994,10 +2087,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>641</v>
+        <v>363</v>
       </c>
       <c r="N21" s="7">
-        <v>655704</v>
+        <v>335673</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2011,7 +2104,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2030,34 +2123,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>1742</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>1790349</v>
+        <v>64572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="7">
+        <v>58</v>
+      </c>
+      <c r="N22" s="7">
+        <v>64572</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="7">
-        <v>1742</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1790349</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,34 +2172,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1505</v>
+        <v>220</v>
       </c>
       <c r="I23" s="7">
-        <v>1536701</v>
+        <v>255459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="7">
+        <v>220</v>
+      </c>
+      <c r="N23" s="7">
+        <v>255459</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="7">
-        <v>1505</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1536701</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,48 +2221,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>278</v>
+      </c>
+      <c r="I24" s="7">
+        <v>320031</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>278</v>
+      </c>
+      <c r="N24" s="7">
+        <v>320031</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1742</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1790349</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1742</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1790349</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1505</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1536701</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1505</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1536701</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3247</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3327050</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3247</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3327050</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2182,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB5EB57-026E-4892-B37A-5D6091609FF4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F698C30D-D48B-4F86-82D3-8D2A37043C00}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2199,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2319,13 +2562,13 @@
         <v>167377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>160</v>
@@ -2334,13 +2577,13 @@
         <v>167377</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2611,13 @@
         <v>259937</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>258</v>
@@ -2383,13 +2626,13 @@
         <v>259937</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2711,13 @@
         <v>452021</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>422</v>
@@ -2483,13 +2726,13 @@
         <v>452021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2760,13 @@
         <v>153776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
@@ -2532,13 +2775,13 @@
         <v>153776</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2860,13 @@
         <v>575284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>540</v>
@@ -2632,13 +2875,13 @@
         <v>575284</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2909,13 @@
         <v>130559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -2681,13 +2924,13 @@
         <v>130559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +3009,13 @@
         <v>492093</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>427</v>
@@ -2781,13 +3024,13 @@
         <v>492093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +3058,13 @@
         <v>124106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -2830,13 +3073,13 @@
         <v>124106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +3158,13 @@
         <v>316156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>286</v>
@@ -2930,13 +3173,13 @@
         <v>316156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +3207,13 @@
         <v>124648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -2979,13 +3222,13 @@
         <v>124648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,34 +3301,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="I19" s="7">
-        <v>290045</v>
+        <v>179974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="N19" s="7">
-        <v>290045</v>
+        <v>179974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,34 +3350,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>406</v>
+        <v>165</v>
       </c>
       <c r="I20" s="7">
-        <v>436351</v>
+        <v>169102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>406</v>
+        <v>165</v>
       </c>
       <c r="N20" s="7">
-        <v>436351</v>
+        <v>169102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,10 +3399,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>678</v>
+        <v>339</v>
       </c>
       <c r="I21" s="7">
-        <v>726396</v>
+        <v>349076</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3171,10 +3414,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>678</v>
+        <v>339</v>
       </c>
       <c r="N21" s="7">
-        <v>726396</v>
+        <v>349076</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3188,7 +3431,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3207,34 +3450,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>2107</v>
+        <v>98</v>
       </c>
       <c r="I22" s="7">
-        <v>2292976</v>
+        <v>110072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>2107</v>
+        <v>98</v>
       </c>
       <c r="N22" s="7">
-        <v>2292976</v>
+        <v>110072</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,34 +3499,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1157</v>
+        <v>241</v>
       </c>
       <c r="I23" s="7">
-        <v>1229378</v>
+        <v>267249</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
-        <v>1157</v>
+        <v>241</v>
       </c>
       <c r="N23" s="7">
-        <v>1229378</v>
+        <v>267249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,48 +3548,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>339</v>
+      </c>
+      <c r="I24" s="7">
+        <v>377321</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>377321</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2107</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2292976</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2107</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2292976</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1157</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1229377</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1157</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1229377</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3264</v>
       </c>
-      <c r="I24" s="7">
-        <v>3522354</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3522353</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3264</v>
       </c>
-      <c r="N24" s="7">
-        <v>3522354</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>3522353</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3359,8 +3752,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629EBD38-3857-4468-93E3-2B58F3860ED1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0847D1C-CEC3-4187-A8DD-17B996BC798B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3376,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3496,13 +3889,13 @@
         <v>164759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>167</v>
@@ -3511,13 +3904,13 @@
         <v>164759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,31 +3935,31 @@
         <v>227</v>
       </c>
       <c r="I5" s="7">
-        <v>220961</v>
+        <v>220960</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>227</v>
       </c>
       <c r="N5" s="7">
-        <v>220961</v>
+        <v>220960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3984,7 @@
         <v>394</v>
       </c>
       <c r="I6" s="7">
-        <v>385720</v>
+        <v>385719</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3606,7 +3999,7 @@
         <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>385720</v>
+        <v>385719</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3645,13 +4038,13 @@
         <v>379048</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -3660,13 +4053,13 @@
         <v>379048</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +4087,13 @@
         <v>182535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -3709,13 +4102,13 @@
         <v>182535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +4187,13 @@
         <v>518258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -3809,13 +4202,13 @@
         <v>518258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +4236,13 @@
         <v>138823</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>142</v>
@@ -3858,13 +4251,13 @@
         <v>138823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +4336,13 @@
         <v>492828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -3958,13 +4351,13 @@
         <v>492828</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4385,13 @@
         <v>150578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -4007,13 +4400,13 @@
         <v>150578</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4485,13 @@
         <v>332757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>289</v>
@@ -4107,13 +4500,13 @@
         <v>332757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4534,13 @@
         <v>160962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -4156,13 +4549,13 @@
         <v>160962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,34 +4628,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="I19" s="7">
-        <v>354577</v>
+        <v>216106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="N19" s="7">
-        <v>354577</v>
+        <v>216106</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,34 +4677,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="I20" s="7">
-        <v>410587</v>
+        <v>156584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="N20" s="7">
-        <v>410587</v>
+        <v>156584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,10 +4726,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>644</v>
+        <v>349</v>
       </c>
       <c r="I21" s="7">
-        <v>765164</v>
+        <v>372690</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4348,10 +4741,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>644</v>
+        <v>349</v>
       </c>
       <c r="N21" s="7">
-        <v>765164</v>
+        <v>372690</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4365,7 +4758,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4384,34 +4777,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>2123</v>
+        <v>102</v>
       </c>
       <c r="I22" s="7">
-        <v>2242226</v>
+        <v>138471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>2123</v>
+        <v>102</v>
       </c>
       <c r="N22" s="7">
-        <v>2242226</v>
+        <v>138471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,34 +4826,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1180</v>
+        <v>193</v>
       </c>
       <c r="I23" s="7">
-        <v>1264446</v>
+        <v>254004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
-        <v>1180</v>
+        <v>193</v>
       </c>
       <c r="N23" s="7">
-        <v>1264446</v>
+        <v>254004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,48 +4875,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>295</v>
+      </c>
+      <c r="I24" s="7">
+        <v>392475</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>295</v>
+      </c>
+      <c r="N24" s="7">
+        <v>392475</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2123</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2242226</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2123</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2242226</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1180</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1264446</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1180</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1264446</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3303</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3506672</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3303</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3506672</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4536,8 +5079,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4A6550-D407-4A05-92BF-EA5B34523E89}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10B5BB-2B88-4F2C-8FC3-C5B30B1FD483}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4553,7 +5096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4670,31 +5213,31 @@
         <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>47534</v>
+        <v>43181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>47534</v>
+        <v>43181</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,31 +5262,31 @@
         <v>148</v>
       </c>
       <c r="I5" s="7">
-        <v>253548</v>
+        <v>220664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>148</v>
       </c>
       <c r="N5" s="7">
-        <v>253548</v>
+        <v>220664</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,7 +5311,7 @@
         <v>176</v>
       </c>
       <c r="I6" s="7">
-        <v>301082</v>
+        <v>263845</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4783,7 +5326,7 @@
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>301082</v>
+        <v>263845</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4819,31 +5362,31 @@
         <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>201542</v>
+        <v>244923</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
       </c>
       <c r="N7" s="7">
-        <v>201542</v>
+        <v>244923</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,31 +5411,31 @@
         <v>165</v>
       </c>
       <c r="I8" s="7">
-        <v>170743</v>
+        <v>150242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>165</v>
       </c>
       <c r="N8" s="7">
-        <v>170743</v>
+        <v>150242</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +5460,7 @@
         <v>336</v>
       </c>
       <c r="I9" s="7">
-        <v>372285</v>
+        <v>395165</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4932,7 +5475,7 @@
         <v>336</v>
       </c>
       <c r="N9" s="7">
-        <v>372285</v>
+        <v>395165</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4968,31 +5511,31 @@
         <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>273067</v>
+        <v>255882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
       </c>
       <c r="N10" s="7">
-        <v>273067</v>
+        <v>255882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,31 +5560,31 @@
         <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>127010</v>
+        <v>113984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>181</v>
       </c>
       <c r="N11" s="7">
-        <v>127010</v>
+        <v>113984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,7 +5609,7 @@
         <v>575</v>
       </c>
       <c r="I12" s="7">
-        <v>400077</v>
+        <v>369866</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5081,7 +5624,7 @@
         <v>575</v>
       </c>
       <c r="N12" s="7">
-        <v>400077</v>
+        <v>369866</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5117,31 +5660,31 @@
         <v>587</v>
       </c>
       <c r="I13" s="7">
-        <v>393391</v>
+        <v>388218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>587</v>
       </c>
       <c r="N13" s="7">
-        <v>393391</v>
+        <v>388218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,31 +5709,31 @@
         <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>125334</v>
+        <v>112466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
       </c>
       <c r="N14" s="7">
-        <v>125334</v>
+        <v>112466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,7 +5758,7 @@
         <v>781</v>
       </c>
       <c r="I15" s="7">
-        <v>518725</v>
+        <v>500684</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5230,7 +5773,7 @@
         <v>781</v>
       </c>
       <c r="N15" s="7">
-        <v>518725</v>
+        <v>500684</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5266,31 +5809,31 @@
         <v>516</v>
       </c>
       <c r="I16" s="7">
-        <v>308804</v>
+        <v>284328</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>516</v>
       </c>
       <c r="N16" s="7">
-        <v>308804</v>
+        <v>284328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,31 +5858,31 @@
         <v>217</v>
       </c>
       <c r="I17" s="7">
-        <v>127647</v>
+        <v>115311</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
       </c>
       <c r="N17" s="7">
-        <v>127647</v>
+        <v>115311</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,7 +5907,7 @@
         <v>733</v>
       </c>
       <c r="I18" s="7">
-        <v>436451</v>
+        <v>399639</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5379,7 +5922,7 @@
         <v>733</v>
       </c>
       <c r="N18" s="7">
-        <v>436451</v>
+        <v>399639</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5412,34 +5955,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>724</v>
+        <v>405</v>
       </c>
       <c r="I19" s="7">
-        <v>388877</v>
+        <v>197491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
-        <v>724</v>
+        <v>405</v>
       </c>
       <c r="N19" s="7">
-        <v>388877</v>
+        <v>197491</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,34 +6004,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>663</v>
+        <v>244</v>
       </c>
       <c r="I20" s="7">
-        <v>467408</v>
+        <v>323434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
-        <v>663</v>
+        <v>244</v>
       </c>
       <c r="N20" s="7">
-        <v>467408</v>
+        <v>323434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,10 +6053,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1387</v>
+        <v>649</v>
       </c>
       <c r="I21" s="7">
-        <v>856285</v>
+        <v>520925</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5525,10 +6068,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1387</v>
+        <v>649</v>
       </c>
       <c r="N21" s="7">
-        <v>856285</v>
+        <v>520925</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5542,7 +6085,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5561,34 +6104,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>2420</v>
+        <v>319</v>
       </c>
       <c r="I22" s="7">
-        <v>1613216</v>
+        <v>157265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
-        <v>2420</v>
+        <v>319</v>
       </c>
       <c r="N22" s="7">
-        <v>1613216</v>
+        <v>157265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,34 +6153,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1568</v>
+        <v>419</v>
       </c>
       <c r="I23" s="7">
-        <v>1271690</v>
+        <v>200039</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
-        <v>1568</v>
+        <v>419</v>
       </c>
       <c r="N23" s="7">
-        <v>1271690</v>
+        <v>200039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,48 +6202,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>738</v>
+      </c>
+      <c r="I24" s="7">
+        <v>357304</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>738</v>
+      </c>
+      <c r="N24" s="7">
+        <v>357304</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2420</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1571289</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2420</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1571289</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1568</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1236139</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1568</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1236139</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3988</v>
       </c>
-      <c r="I24" s="7">
-        <v>2884906</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2807428</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3988</v>
       </c>
-      <c r="N24" s="7">
-        <v>2884906</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>2807428</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
